--- a/data.xlsx
+++ b/data.xlsx
@@ -1,34 +1,183 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USARB\3 курс\SI\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F45874FA-73C7-485C-B8DD-1165C477305C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="GARAJ" sheetId="2" r:id="rId1"/>
+    <sheet name="EMAG" sheetId="3" r:id="rId2"/>
+    <sheet name="ALTEX" sheetId="4" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+  <si>
+    <t>GARAJ</t>
+  </si>
+  <si>
+    <t>Procesor Intel Rocket Lake, Core i9 11900K 3.5GHz box</t>
+  </si>
+  <si>
+    <t>Procesor Intel Alder Lake, Core i9 12900K 3.2GHz box</t>
+  </si>
+  <si>
+    <t>Procesor Intel Rocket Lake, Core i9 11900KF 3.5GHz box</t>
+  </si>
+  <si>
+    <t>Procesor Intel Alder Lake, Core i9 12900KF 3.2GHz box</t>
+  </si>
+  <si>
+    <t>Procesor Intel Alder Lake, Core i9 12900KS 3.4GHz box</t>
+  </si>
+  <si>
+    <t>Procesor Intel Rocket Lake, Core i9 11900 2.5GHz box</t>
+  </si>
+  <si>
+    <t>Procesor Intel Comet Lake, Core i9 10900K 3.7GHz box</t>
+  </si>
+  <si>
+    <t>Procesor Intel Alder Lake, Core i9 12900 2.4GHz box</t>
+  </si>
+  <si>
+    <t>Procesor Intel Raptor Lake, Core i9 13900K 3.0GHz box</t>
+  </si>
+  <si>
+    <t>Procesor Intel Raptor Lake, Core i9 13900KF 3.0GHz box</t>
+  </si>
+  <si>
+    <t>Procesor Intel Alder Lake, Core i9 12900KF 3.2GHz tray</t>
+  </si>
+  <si>
+    <t>Procesor Intel Comet Lake, Core i9 10900F 2.8GHz box</t>
+  </si>
+  <si>
+    <t>Procesor Intel Comet Lake, Core i9 10850K 3.6GHz box</t>
+  </si>
+  <si>
+    <t>Procesor Intel Comet Lake, Core i9 10900KF 3.7GHz box</t>
+  </si>
+  <si>
+    <t>Procesor Intel Comet Lake, Core i9 10900 2.8GHz box</t>
+  </si>
+  <si>
+    <t>Procesor Intel Rocket Lake, Core i9 11900F 2.5GHz box</t>
+  </si>
+  <si>
+    <t>Procesor Intel Alder Lake, Core i9 12900K 3.2GHz tray</t>
+  </si>
+  <si>
+    <t>Procesor Intel Alder Lake, Core i9 12900F 2.4GHz box</t>
+  </si>
+  <si>
+    <t>EMAG</t>
+  </si>
+  <si>
+    <t>Procesor Intel® Core™ i9-13900KF Raptor Lake, 3.0GHz, 5.8 GHz turbo, 36MB, Socket 1700</t>
+  </si>
+  <si>
+    <t>Procesor Intel® Core™ i9-11900K Rocket Lake, 3.50 GHz, 16MB, Socket 1200</t>
+  </si>
+  <si>
+    <t>Procesor Intel® Core™ i9-12900K Alder Lake, 3.2GHz, 30MB, Socket 1700</t>
+  </si>
+  <si>
+    <t>Procesor Intel® Core™ i9-12900KS Alder Lake, 3.4GHz, 30MB, Socket 1700</t>
+  </si>
+  <si>
+    <t>Procesor Intel® Core™ i9-11900KF Rocket Lake, 3.50GHz, 16MB, fara grafica integrata, Socket 1200</t>
+  </si>
+  <si>
+    <t>Procesor Intel® Core™ i9-11900 Rocket Lake, 2.50 GHz, 16MB, Socket 1200</t>
+  </si>
+  <si>
+    <t>Procesor Intel® Core™ i9-10900X, 3.70GHz, 19MB, Socket 2066</t>
+  </si>
+  <si>
+    <t>Procesor Intel® Core™ i9-10900K Comet Lake, 3.70GHz, 20MB, Socket 1200</t>
+  </si>
+  <si>
+    <t>Procesor Intel® Core™ i9-11900F Rocket Lake, 2.50 GHz, 16MB, fara grafica integrata, Socket 1200</t>
+  </si>
+  <si>
+    <t>Procesor Intel® Core™ Cascade Lake i9-10980XE, 3GHz, 24MB, fara grafica integrata Socket 2066</t>
+  </si>
+  <si>
+    <t>Procesor Intel® Core™ i9-10900KF Comet Lake, 3.70GHz, 20MB, fara grafica integrata, Socket 1200</t>
+  </si>
+  <si>
+    <t>Procesor Intel® Core™ i9-10940X Cascade Lake, 3.3Ghz, 19MB, Socket 2066</t>
+  </si>
+  <si>
+    <t>Procesor Intel® Core™ i9-12900F Alder Lake, 2.4GHz, 30MB, fara grafica integrata, Socket 1700</t>
+  </si>
+  <si>
+    <t>Procesor Intel® Core™ i9-9940X X-series, 3.30 GHz, 19.25MB, Socket 2066</t>
+  </si>
+  <si>
+    <t>Procesor Intel® Core™ i9-10850K Comet Lake 3.6GHz, 20MB, Socket 1200</t>
+  </si>
+  <si>
+    <t>Procesor Intel® Core™ i9-10900 Comet Lake, 2.8GHz, 20MB, Socket 1200</t>
+  </si>
+  <si>
+    <t>Procesor Intel® Core™ Cascade Lake i9-10920X, 3.5GHz, 19MB, fara grafica integrata Socket 2066</t>
+  </si>
+  <si>
+    <t>Procesor Intel® Core™ i9-10900F Comet Lake, 2.8GHz, 20MB, Socket 1200</t>
+  </si>
+  <si>
+    <t>Procesor Intel® Core™ I9-7920X, 2.9GHz, X-Series, Socket 2066</t>
+  </si>
+  <si>
+    <t>Procesor Intel® Core™ i9-12900KF Alder Lake, 3.2GHz, 30MB, fara grafica integrata, Socket 1700</t>
+  </si>
+  <si>
+    <t>Procesor Intel® Core™ i9-12900 Alder Lake, 2.4GHz, 30MB, Socket 1700</t>
+  </si>
+  <si>
+    <t>Procesor Intel® Core™ i9-13900K Raptor Lake, 3.0GHz, 5.8 GHz turbo, 36MB, Socket 1700</t>
+  </si>
+  <si>
+    <t>ALTEX</t>
+  </si>
+  <si>
+    <t>Procesor Intel Core i9-12900K, 3.2GHz/5.2GHz, Socket 1700, BX8071512900KSRL4H</t>
+  </si>
+  <si>
+    <t>Procesor Intel Core i9-12900KS, 3.4GHz/5.5GHz, Socket 1700, BX8071512900KS</t>
+  </si>
+  <si>
+    <t>Procesor Intel Core i9-13900K, 3GHz/5.8GHz, Socket 1700, BX8071513900K S RMBH</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,80 +196,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,198 +498,398 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>GARAJ</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>EMAG</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>ALTEX</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>3034.15</v>
-      </c>
-      <c r="B2" t="n">
-        <v>4212.6</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2998</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2049.99</v>
-      </c>
-      <c r="B3" t="n">
-        <v>3464.7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1889.99</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3948</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3670.47</v>
-      </c>
-      <c r="B5" t="n">
-        <v>2377.28</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2399.99</v>
-      </c>
-      <c r="B6" t="n">
-        <v>3186</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>3133.94</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2358</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2049.9899999999998</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2999.99</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1949.99</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2849.99</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>3599.99</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2449.9899999999998</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2619.9899999999998</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>3359.99</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>3499.99</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>3359.99</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2931.15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2277.21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2457.17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2528.4899999999998</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2544.9899999999998</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2813.76</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>3104.59</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>3300</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>3454.8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2249.9899999999998</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3344.55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4052.15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>2173.89</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>2619.99</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2632.69</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1929.99</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>2709.09</v>
-      </c>
-      <c r="B11" t="n">
-        <v>3652</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>3429.99</v>
-      </c>
-      <c r="B12" t="n">
-        <v>2289.99</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>3647.34</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2349.99</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>3452.87</v>
-      </c>
-      <c r="B14" t="n">
-        <v>7211</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>2552.51</v>
-      </c>
-      <c r="B15" t="n">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2349.9899999999998</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>3958.99</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>2621.73</v>
-      </c>
-      <c r="B16" t="n">
-        <v>5845.99</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>2995.88</v>
-      </c>
-      <c r="B17" t="n">
-        <v>2399.99</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>3521.01</v>
-      </c>
-      <c r="B18" t="n">
-        <v>3299.99</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" t="n">
-        <v>2399</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" t="n">
-        <v>11354.22</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" t="n">
-        <v>3046.99</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" t="n">
-        <v>5046.99</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" t="n">
-        <v>4781.5</v>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2282.6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2399.9899999999998</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>7228</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2298.9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>5562</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>3199.99</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>11062.4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>3084.43</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2845.99</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>5056</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2659</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>4783.0200000000004</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>3094</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>3379.99</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>4399.99</v>
+      </c>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2999</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3799</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3499</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
